--- a/outcome/analyze.xlsx
+++ b/outcome/analyze.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="743" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="743" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model evaluation" sheetId="2" r:id="rId1"/>
@@ -782,8 +782,8 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L5" sqref="L5"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2132,13 +2132,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
+      <selection pane="bottomLeft" activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2851,39 +2853,39 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <f>AVERAGE(B3:B25)</f>
         <v>0.96129130434782606</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <f t="shared" ref="C26:I26" si="0">AVERAGE(C3:C25)</f>
         <v>1.7130434782608691E-3</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <f t="shared" si="0"/>
         <v>1.5730434782608695E-2</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="1">
         <f t="shared" si="0"/>
         <v>0.11210869565217392</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="1">
         <f t="shared" si="0"/>
         <v>0.91826521739130418</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="1">
         <f t="shared" si="0"/>
         <v>0.97801304347826068</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="1">
         <f t="shared" si="0"/>
         <v>2.1986956521739126E-2</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="1">
         <f t="shared" si="0"/>
         <v>8.1734782608695669E-2</v>
       </c>
@@ -2900,7 +2902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O30" sqref="O30"/>
     </sheetView>

--- a/outcome/analyze.xlsx
+++ b/outcome/analyze.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="743" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="743"/>
   </bookViews>
   <sheets>
     <sheet name="Model evaluation" sheetId="2" r:id="rId1"/>
@@ -634,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,8 +782,8 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
+      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2132,9 +2132,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M35" sqref="M35"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3617,7 +3617,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M25" sqref="M25"/>
+      <selection pane="bottomLeft" activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
